--- a/IPC calculado.xlsx
+++ b/IPC calculado.xlsx
@@ -59,7 +59,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border/>
     <border>
       <left style="thin">
@@ -97,14 +97,6 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
@@ -122,13 +114,13 @@
     <xf borderId="3" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -808,7 +800,7 @@
         <v>40238.0</v>
       </c>
       <c r="B58" s="5">
-        <v>99.24364468943942</v>
+        <v>99.24113860008084</v>
       </c>
     </row>
     <row r="59">
@@ -816,7 +808,7 @@
         <v>40330.0</v>
       </c>
       <c r="B59" s="5">
-        <v>100.09086250977411</v>
+        <v>100.08833502656637</v>
       </c>
     </row>
     <row r="60">
@@ -824,7 +816,7 @@
         <v>40422.0</v>
       </c>
       <c r="B60" s="5">
-        <v>100.92279774349923</v>
+        <v>100.9202492523565</v>
       </c>
     </row>
     <row r="61">
@@ -832,7 +824,7 @@
         <v>40513.0</v>
       </c>
       <c r="B61" s="5">
-        <v>101.34470956571803</v>
+        <v>101.3421504205054</v>
       </c>
     </row>
     <row r="62">
@@ -840,7 +832,7 @@
         <v>40603.0</v>
       </c>
       <c r="B62" s="5">
-        <v>102.13895867746461</v>
+        <v>102.1363794759627</v>
       </c>
     </row>
     <row r="63">
@@ -848,7 +840,7 @@
         <v>40695.0</v>
       </c>
       <c r="B63" s="5">
-        <v>103.39792362626497</v>
+        <v>103.3953126335217</v>
       </c>
     </row>
     <row r="64">
@@ -856,7 +848,7 @@
         <v>40787.0</v>
       </c>
       <c r="B64" s="5">
-        <v>104.06785260163645</v>
+        <v>104.06522469192201</v>
       </c>
     </row>
     <row r="65">
@@ -864,7 +856,7 @@
         <v>40878.0</v>
       </c>
       <c r="B65" s="5">
-        <v>105.411704127871</v>
+        <v>105.40904228336889</v>
       </c>
     </row>
     <row r="66">
@@ -872,7 +864,7 @@
         <v>40969.0</v>
       </c>
       <c r="B66" s="5">
-        <v>106.37587978253221</v>
+        <v>106.37319359077487</v>
       </c>
     </row>
     <row r="67">
@@ -880,7 +872,7 @@
         <v>41061.0</v>
       </c>
       <c r="B67" s="5">
-        <v>106.59971254083723</v>
+        <v>106.59702069688022</v>
       </c>
     </row>
     <row r="68">
@@ -888,7 +880,7 @@
         <v>41153.0</v>
       </c>
       <c r="B68" s="5">
-        <v>106.81574376122502</v>
+        <v>106.81304646207194</v>
       </c>
     </row>
     <row r="69">
@@ -896,7 +888,7 @@
         <v>41244.0</v>
       </c>
       <c r="B69" s="5">
-        <v>107.70651607564761</v>
+        <v>107.70379628281218</v>
       </c>
     </row>
     <row r="70">
@@ -904,7 +896,7 @@
         <v>41334.0</v>
       </c>
       <c r="B70" s="5">
-        <v>107.93894554372328</v>
+        <v>107.93621988160507</v>
       </c>
     </row>
     <row r="71">
@@ -912,7 +904,7 @@
         <v>41426.0</v>
       </c>
       <c r="B71" s="5">
-        <v>107.95721478542013</v>
+        <v>107.95448866196907</v>
       </c>
     </row>
     <row r="72">
@@ -920,7 +912,7 @@
         <v>41518.0</v>
       </c>
       <c r="B72" s="5">
-        <v>109.06573203566032</v>
+        <v>109.06297792005627</v>
       </c>
     </row>
     <row r="73">
@@ -928,7 +920,7 @@
         <v>41609.0</v>
       </c>
       <c r="B73" s="5">
-        <v>110.19126143649369</v>
+        <v>110.18847889914778</v>
       </c>
     </row>
     <row r="74">
@@ -936,7 +928,7 @@
         <v>41699.0</v>
       </c>
       <c r="B74" s="5">
-        <v>101.28188956995682</v>
+        <v>111.28573001376111</v>
       </c>
     </row>
     <row r="75">
@@ -944,7 +936,7 @@
         <v>41791.0</v>
       </c>
       <c r="B75" s="5">
-        <v>102.8920159330871</v>
+        <v>113.05489218575623</v>
       </c>
     </row>
     <row r="76">
@@ -952,7 +944,7 @@
         <v>41883.0</v>
       </c>
       <c r="B76" s="5">
-        <v>103.79518105917872</v>
+        <v>114.04726496638703</v>
       </c>
     </row>
     <row r="77">
@@ -960,7 +952,7 @@
         <v>41974.0</v>
       </c>
       <c r="B77" s="5">
-        <v>105.44456831918905</v>
+        <v>115.8595659225107</v>
       </c>
     </row>
     <row r="78">
@@ -968,7 +960,7 @@
         <v>42064.0</v>
       </c>
       <c r="B78" s="5">
-        <v>105.71201527345255</v>
+        <v>116.15342921506523</v>
       </c>
     </row>
     <row r="79">
@@ -976,7 +968,7 @@
         <v>42156.0</v>
       </c>
       <c r="B79" s="5">
-        <v>107.18817685181095</v>
+        <v>117.77539459864363</v>
       </c>
     </row>
     <row r="80">
@@ -984,7 +976,7 @@
         <v>42248.0</v>
       </c>
       <c r="B80" s="5">
-        <v>108.72414824137552</v>
+        <v>119.46307734324604</v>
       </c>
     </row>
     <row r="81">
@@ -992,7 +984,7 @@
         <v>42339.0</v>
       </c>
       <c r="B81" s="5">
-        <v>109.76899124969435</v>
+        <v>120.61112184976389</v>
       </c>
     </row>
     <row r="82">
@@ -1000,7 +992,7 @@
         <v>42430.0</v>
       </c>
       <c r="B82" s="5">
-        <v>110.62770558759219</v>
+        <v>121.55465333769331</v>
       </c>
     </row>
     <row r="83">
@@ -1008,7 +1000,7 @@
         <v>42522.0</v>
       </c>
       <c r="B83" s="5">
-        <v>111.70555466186772</v>
+        <v>122.73896399367251</v>
       </c>
     </row>
     <row r="84">
@@ -1016,7 +1008,7 @@
         <v>42614.0</v>
       </c>
       <c r="B84" s="5">
-        <v>112.52256412537855</v>
+        <v>123.63667132280123</v>
       </c>
     </row>
     <row r="85">
@@ -1024,7 +1016,7 @@
         <v>42705.0</v>
       </c>
       <c r="B85" s="5">
-        <v>112.87379705416436</v>
+        <v>124.02259631937034</v>
       </c>
     </row>
     <row r="86">
@@ -1032,7 +1024,7 @@
         <v>42795.0</v>
       </c>
       <c r="B86" s="5">
-        <v>113.6747538649086</v>
+        <v>124.90266543904843</v>
       </c>
     </row>
     <row r="87">
@@ -1040,7 +1032,7 @@
         <v>42887.0</v>
       </c>
       <c r="B87" s="5">
-        <v>114.27589884518194</v>
+        <v>125.56318686353885</v>
       </c>
     </row>
     <row r="88">
@@ -1048,7 +1040,7 @@
         <v>42979.0</v>
       </c>
       <c r="B88" s="5">
-        <v>114.39811744480619</v>
+        <v>125.69747726963409</v>
       </c>
     </row>
     <row r="89">
@@ -1056,7 +1048,7 @@
         <v>43070.0</v>
       </c>
       <c r="B89" s="5">
-        <v>115.15282578619977</v>
+        <v>126.52672985443553</v>
       </c>
     </row>
     <row r="90">
@@ -1064,7 +1056,7 @@
         <v>43160.0</v>
       </c>
       <c r="B90" s="5">
-        <v>115.9438865813077</v>
+        <v>127.39592550671495</v>
       </c>
     </row>
     <row r="91">
@@ -1072,7 +1064,7 @@
         <v>43252.0</v>
       </c>
       <c r="B91" s="5">
-        <v>116.74317047799279</v>
+        <v>128.27415647484284</v>
       </c>
     </row>
     <row r="92">
@@ -1080,7 +1072,7 @@
         <v>43344.0</v>
       </c>
       <c r="B92" s="5">
-        <v>117.61419145409668</v>
+        <v>129.23121015536356</v>
       </c>
     </row>
     <row r="93">
@@ -1088,7 +1080,7 @@
         <v>43435.0</v>
       </c>
       <c r="B93" s="5">
-        <v>118.33600068100175</v>
+        <v>130.02431410600929</v>
       </c>
     </row>
     <row r="94">
@@ -1096,7 +1088,7 @@
         <v>43525.0</v>
       </c>
       <c r="B94" s="6">
-        <v>99.92982341666699</v>
+        <v>129.94174979755198</v>
       </c>
     </row>
     <row r="95">
@@ -1104,7 +1096,7 @@
         <v>43617.0</v>
       </c>
       <c r="B95" s="6">
-        <v>100.946249083333</v>
+        <v>131.25481285276797</v>
       </c>
     </row>
     <row r="96">
@@ -1112,7 +1104,7 @@
         <v>43709.0</v>
       </c>
       <c r="B96" s="6">
-        <v>101.53696400000001</v>
+        <v>132.027202885248</v>
       </c>
     </row>
     <row r="97">
@@ -1120,7 +1112,7 @@
         <v>43800.0</v>
       </c>
       <c r="B97" s="6">
-        <v>102.526989</v>
+        <v>133.31451960604798</v>
       </c>
     </row>
   </sheetData>
